--- a/contratos/contratos-6-2010.xlsx
+++ b/contratos/contratos-6-2010.xlsx
@@ -601,7 +601,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MOSCA OLGA RAQUEL</t>
@@ -658,7 +658,7 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -676,13 +676,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>GRUPO QUALITY S.A.</t>
@@ -721,7 +721,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>TESTA CARLOS ALBERTO</t>
@@ -1111,469 +1111,469 @@
     <t>98</t>
   </si>
   <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>1.092,00</t>
-  </si>
-  <si>
-    <t>25.000,50</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>164,00</t>
-  </si>
-  <si>
-    <t>1.348,10</t>
-  </si>
-  <si>
-    <t>10.260,00</t>
-  </si>
-  <si>
-    <t>930,95</t>
-  </si>
-  <si>
-    <t>19.220,45</t>
-  </si>
-  <si>
-    <t>4.620,07</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>49.806,50</t>
-  </si>
-  <si>
-    <t>91.545,20</t>
-  </si>
-  <si>
-    <t>27.182,49</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>1.387,65</t>
-  </si>
-  <si>
-    <t>5.967,40</t>
-  </si>
-  <si>
-    <t>206,40</t>
-  </si>
-  <si>
-    <t>954,80</t>
-  </si>
-  <si>
-    <t>5.392,24</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>438,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>1.077,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>53,09</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>1.807,46</t>
-  </si>
-  <si>
-    <t>167,50</t>
-  </si>
-  <si>
-    <t>505,66</t>
-  </si>
-  <si>
-    <t>169,54</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>25.973,93</t>
-  </si>
-  <si>
-    <t>319,20</t>
-  </si>
-  <si>
-    <t>333,50</t>
-  </si>
-  <si>
-    <t>191,00</t>
-  </si>
-  <si>
-    <t>3.802,70</t>
-  </si>
-  <si>
-    <t>57.822,13</t>
-  </si>
-  <si>
-    <t>33.280,15</t>
-  </si>
-  <si>
-    <t>1.235,83</t>
-  </si>
-  <si>
-    <t>1.931,00</t>
-  </si>
-  <si>
-    <t>192,00</t>
-  </si>
-  <si>
-    <t>181,65</t>
-  </si>
-  <si>
-    <t>27.709,08</t>
-  </si>
-  <si>
-    <t>54,00</t>
-  </si>
-  <si>
-    <t>2.149,11</t>
-  </si>
-  <si>
-    <t>78,00</t>
-  </si>
-  <si>
-    <t>31,80</t>
-  </si>
-  <si>
-    <t>997,00</t>
-  </si>
-  <si>
-    <t>1.290,50</t>
-  </si>
-  <si>
-    <t>25,30</t>
-  </si>
-  <si>
-    <t>306,00</t>
-  </si>
-  <si>
-    <t>435,50</t>
-  </si>
-  <si>
-    <t>1.822,00</t>
-  </si>
-  <si>
-    <t>38,46</t>
-  </si>
-  <si>
-    <t>11.520,00</t>
-  </si>
-  <si>
-    <t>4.973,00</t>
-  </si>
-  <si>
-    <t>4.184,00</t>
-  </si>
-  <si>
-    <t>300,08</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>1.256,00</t>
-  </si>
-  <si>
-    <t>10.345,80</t>
-  </si>
-  <si>
-    <t>7.879,00</t>
-  </si>
-  <si>
-    <t>38,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>1.340,00</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>2.139,73</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>0,08</t>
-  </si>
-  <si>
-    <t>2.535,00</t>
-  </si>
-  <si>
-    <t>4,80</t>
-  </si>
-  <si>
-    <t>1.044,06</t>
-  </si>
-  <si>
-    <t>1.942,34</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>1.960,00</t>
-  </si>
-  <si>
-    <t>1.060,50</t>
-  </si>
-  <si>
-    <t>4.470,00</t>
-  </si>
-  <si>
-    <t>1.090,50</t>
-  </si>
-  <si>
-    <t>2.127,00</t>
-  </si>
-  <si>
-    <t>177,15</t>
-  </si>
-  <si>
-    <t>509,80</t>
-  </si>
-  <si>
-    <t>29,50</t>
-  </si>
-  <si>
-    <t>142,27</t>
-  </si>
-  <si>
-    <t>23,79</t>
-  </si>
-  <si>
-    <t>4.035,00</t>
-  </si>
-  <si>
-    <t>372,00</t>
-  </si>
-  <si>
-    <t>122,00</t>
-  </si>
-  <si>
-    <t>756,00</t>
-  </si>
-  <si>
-    <t>24.561,15</t>
-  </si>
-  <si>
-    <t>12.084,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>565,00</t>
-  </si>
-  <si>
-    <t>2.882,00</t>
-  </si>
-  <si>
-    <t>33.880,00</t>
-  </si>
-  <si>
-    <t>975,00</t>
-  </si>
-  <si>
-    <t>151,00</t>
-  </si>
-  <si>
-    <t>901,00</t>
-  </si>
-  <si>
-    <t>1.902,49</t>
-  </si>
-  <si>
-    <t>4.970,84</t>
-  </si>
-  <si>
-    <t>3.630,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>4.772,24</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>1.010,00</t>
-  </si>
-  <si>
-    <t>13.050,04</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>7.016,60</t>
-  </si>
-  <si>
-    <t>344,00</t>
-  </si>
-  <si>
-    <t>534,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>1.320,00</t>
-  </si>
-  <si>
-    <t>108.900,00</t>
-  </si>
-  <si>
-    <t>10,50</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>4.714,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>4.706,00</t>
-  </si>
-  <si>
-    <t>1.519,00</t>
-  </si>
-  <si>
-    <t>97,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>10.108,19</t>
-  </si>
-  <si>
-    <t>1.173,00</t>
-  </si>
-  <si>
-    <t>70,95</t>
-  </si>
-  <si>
-    <t>894,00</t>
-  </si>
-  <si>
-    <t>421,74</t>
-  </si>
-  <si>
-    <t>85,50</t>
-  </si>
-  <si>
-    <t>747,00</t>
-  </si>
-  <si>
-    <t>6.441,00</t>
-  </si>
-  <si>
-    <t>1.409,00</t>
-  </si>
-  <si>
-    <t>649,56</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>50.500,00</t>
-  </si>
-  <si>
-    <t>1.766,00</t>
-  </si>
-  <si>
-    <t>356.792,70</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>908,26</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>3.670,00</t>
-  </si>
-  <si>
-    <t>1.542,95</t>
-  </si>
-  <si>
-    <t>360,00</t>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>25000.50</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>1348.10</t>
+  </si>
+  <si>
+    <t>10260.00</t>
+  </si>
+  <si>
+    <t>930.95</t>
+  </si>
+  <si>
+    <t>19220.45</t>
+  </si>
+  <si>
+    <t>4620.07</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>49806.50</t>
+  </si>
+  <si>
+    <t>91545.20</t>
+  </si>
+  <si>
+    <t>27182.49</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>1387.65</t>
+  </si>
+  <si>
+    <t>5967.40</t>
+  </si>
+  <si>
+    <t>206.40</t>
+  </si>
+  <si>
+    <t>954.80</t>
+  </si>
+  <si>
+    <t>5392.24</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>438.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>1077.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>53.09</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>1807.46</t>
+  </si>
+  <si>
+    <t>167.50</t>
+  </si>
+  <si>
+    <t>505.66</t>
+  </si>
+  <si>
+    <t>169.54</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>25973.93</t>
+  </si>
+  <si>
+    <t>319.20</t>
+  </si>
+  <si>
+    <t>333.50</t>
+  </si>
+  <si>
+    <t>191.00</t>
+  </si>
+  <si>
+    <t>3802.70</t>
+  </si>
+  <si>
+    <t>57822.13</t>
+  </si>
+  <si>
+    <t>33280.15</t>
+  </si>
+  <si>
+    <t>1235.83</t>
+  </si>
+  <si>
+    <t>1931.00</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>181.65</t>
+  </si>
+  <si>
+    <t>27709.08</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>2149.11</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>31.80</t>
+  </si>
+  <si>
+    <t>997.00</t>
+  </si>
+  <si>
+    <t>1290.50</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>435.50</t>
+  </si>
+  <si>
+    <t>1822.00</t>
+  </si>
+  <si>
+    <t>38.46</t>
+  </si>
+  <si>
+    <t>11520.00</t>
+  </si>
+  <si>
+    <t>4973.00</t>
+  </si>
+  <si>
+    <t>4184.00</t>
+  </si>
+  <si>
+    <t>300.08</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>1256.00</t>
+  </si>
+  <si>
+    <t>10345.80</t>
+  </si>
+  <si>
+    <t>7879.00</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>1340.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>2139.73</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>2535.00</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>1044.06</t>
+  </si>
+  <si>
+    <t>1942.34</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>1960.00</t>
+  </si>
+  <si>
+    <t>1060.50</t>
+  </si>
+  <si>
+    <t>4470.00</t>
+  </si>
+  <si>
+    <t>1090.50</t>
+  </si>
+  <si>
+    <t>2127.00</t>
+  </si>
+  <si>
+    <t>177.15</t>
+  </si>
+  <si>
+    <t>509.80</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>142.27</t>
+  </si>
+  <si>
+    <t>23.79</t>
+  </si>
+  <si>
+    <t>4035.00</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>756.00</t>
+  </si>
+  <si>
+    <t>24561.15</t>
+  </si>
+  <si>
+    <t>12084.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>2882.00</t>
+  </si>
+  <si>
+    <t>33880.00</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>901.00</t>
+  </si>
+  <si>
+    <t>1902.49</t>
+  </si>
+  <si>
+    <t>4970.84</t>
+  </si>
+  <si>
+    <t>3630.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>4772.24</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>1010.00</t>
+  </si>
+  <si>
+    <t>13050.04</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>7016.60</t>
+  </si>
+  <si>
+    <t>344.00</t>
+  </si>
+  <si>
+    <t>534.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>1320.00</t>
+  </si>
+  <si>
+    <t>108900.00</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>4714.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>4706.00</t>
+  </si>
+  <si>
+    <t>1519.00</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>10108.19</t>
+  </si>
+  <si>
+    <t>1173.00</t>
+  </si>
+  <si>
+    <t>70.95</t>
+  </si>
+  <si>
+    <t>894.00</t>
+  </si>
+  <si>
+    <t>421.74</t>
+  </si>
+  <si>
+    <t>85.50</t>
+  </si>
+  <si>
+    <t>747.00</t>
+  </si>
+  <si>
+    <t>6441.00</t>
+  </si>
+  <si>
+    <t>1409.00</t>
+  </si>
+  <si>
+    <t>649.56</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>50500.00</t>
+  </si>
+  <si>
+    <t>1766.00</t>
+  </si>
+  <si>
+    <t>356792.70</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>908.26</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>3670.00</t>
+  </si>
+  <si>
+    <t>1542.95</t>
+  </si>
+  <si>
+    <t>360.00</t>
   </si>
 </sst>
 </file>
